--- a/data/data_final.xlsx
+++ b/data/data_final.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05150D4-C682-47AF-AEBD-0E3F590D2CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B96D9A4-0F4A-4591-989C-A83F876E3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Therbligs1" sheetId="3" r:id="rId1"/>
     <sheet name="Therbligs2" sheetId="4" r:id="rId2"/>
-    <sheet name="Therbligs3" sheetId="8" r:id="rId3"/>
+    <sheet name="Therbligs3" sheetId="10" r:id="rId3"/>
     <sheet name="Therbligs4" sheetId="7" r:id="rId4"/>
-    <sheet name="Therbligs5" sheetId="9" r:id="rId5"/>
-    <sheet name="Therbligs6" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>From</t>
   </si>
@@ -62,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,15 +120,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP1_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIN1_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WP2_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>BIN2_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WP3_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>WP4_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP5_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIN3_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WP6_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIN4_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,12 +229,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -504,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -527,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -538,54 +579,72 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -797,8 +856,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -820,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -829,142 +888,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:1" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -978,27 +1040,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD3EC1-B448-46CA-BAB6-F839BFC014EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF35DF69-A80A-462C-809E-B7E3AFB0C540}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1007,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1016,170 +1078,322 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1196,7 +1410,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1423,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1218,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1228,51 +1442,69 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1303,637 +1535,6 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C4D5EE-8C67-4A32-95B7-31C4E37269A5}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF35DF69-A80A-462C-809E-B7E3AFB0C540}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/data/data_final.xlsx
+++ b/data/data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B96D9A4-0F4A-4591-989C-A83F876E3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DD141-D548-4CBB-93EB-01288BEAA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Therbligs1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
   <si>
     <t>From</t>
   </si>
@@ -174,6 +174,16 @@
   <si>
     <t>BIN4_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP2_TOP</t>
+  </si>
+  <si>
+    <t>WP4_TOP</t>
   </si>
 </sst>
 </file>
@@ -546,7 +556,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +591,9 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
@@ -593,6 +605,9 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
@@ -610,6 +625,9 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
@@ -621,6 +639,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -631,6 +652,9 @@
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -856,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,6 +916,9 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
@@ -903,7 +930,9 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -921,6 +950,9 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -932,6 +964,9 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
@@ -950,6 +985,9 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -961,6 +999,9 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1018,9 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
@@ -989,6 +1032,9 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1005,6 +1051,9 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1015,6 +1064,9 @@
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -1046,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1134,9 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1094,7 +1148,9 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1111,6 +1167,9 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1122,6 +1181,9 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1205,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1221,9 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1175,6 +1241,9 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1188,6 +1257,9 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1206,6 +1278,9 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1216,6 +1291,9 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -1410,7 +1488,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,6 +1523,9 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1456,6 +1537,9 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1472,6 +1556,9 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1483,6 +1570,9 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1493,6 +1583,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>

--- a/data/data_final.xlsx
+++ b/data/data_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DD141-D548-4CBB-93EB-01288BEAA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C06DE-A513-4873-9943-2B60A8B345C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Therbligs1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
   <si>
     <t>From</t>
   </si>
@@ -239,15 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -556,7 +553,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +616,12 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,6 +671,12 @@
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,7 +890,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,10 +953,16 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -980,6 +995,12 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1013,6 +1034,12 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1029,7 +1056,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1038,7 +1065,7 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1046,6 +1073,12 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1079,10 +1112,22 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1143,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1190,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1154,7 +1199,7 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1162,6 +1207,12 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1195,11 +1246,23 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1235,6 +1298,12 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,6 +1342,12 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1305,6 +1380,12 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1632,12 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1597,6 +1684,12 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
